--- a/dtpu_configurations/only_integer16/50mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_8x8/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02199319563806057</v>
+        <v>0.022731000557541847</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008764196187257767</v>
+        <v>0.009339156560599804</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006957201287150383</v>
+        <v>0.007091578096151352</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.004816879518330097</v>
+        <v>0.004816882312297821</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.95098088827217E-5</v>
+        <v>4.550812809611671E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0012338256929069757</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12739764153957367</v>
+        <v>0.12740957736968994</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4309923648834229</v>
+        <v>1.4324674606323242</v>
       </c>
     </row>
   </sheetData>
